--- a/tut06/output/2001CB37.xlsx
+++ b/tut06/output/2001CB37.xlsx
@@ -515,7 +515,7 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -537,7 +537,7 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -546,7 +546,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -625,7 +625,7 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -647,7 +647,7 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -669,7 +669,7 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -691,7 +691,7 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -757,7 +757,7 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
